--- a/Gas Turbine Teststand/results/Export_table_for_Node_PC_with_summary_PP_and_PL_to_xlsx.xlsx
+++ b/Gas Turbine Teststand/results/Export_table_for_Node_PC_with_summary_PP_and_PL_to_xlsx.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,21 @@
           <t>PhysicalLink name</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Property Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Property Value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thermal Sensor</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,34 +471,122 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TS to ECB Board</t>
+          <t>Data Cable (EL)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Thermal Sensor</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PP 2</t>
+          <t>PP 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ECU to Engine (E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PP 3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sensor Interface</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ECU to Battery (EL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PP 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ECU to FV (EL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PP 5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ECU to GV (EL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ECU</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PP 8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ECU to FP (EL)</t>
         </is>
       </c>
     </row>
